--- a/TeplosilaWeb/Content/properties/htrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/htrv3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\Временные файлы\ТЗ программа подбора TRV, RDT\ТЗ клапаны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\CSharp\TeploSila_RDT\TeploSila_RDT\TeploSila_2\bin\Debug\properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -243,16 +243,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,7 +538,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection activeCell="C6" sqref="C6:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,48 +554,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="8">
         <v>53</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="12">
         <v>54</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="8">
         <v>55</v>
       </c>
@@ -625,86 +625,86 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9" t="s">
+      <c r="O3" s="11"/>
+      <c r="P3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="9" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9" t="s">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3">
         <v>15</v>
       </c>
@@ -738,15 +738,15 @@
       <c r="M5" s="3">
         <v>150</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -771,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -990,13 +990,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" s="2">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="K10" s="2">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1042,13 +1042,13 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J11" s="2">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="K11" s="2">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1248,6 +1248,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C4:M4"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A1:V1"/>
@@ -1264,7 +1265,6 @@
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/properties/htrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/htrv3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t>Условный диаметр DN, мм</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>TW1001-XD24-S.14</t>
-  </si>
-  <si>
-    <t>ST 0.1 498.1-OIIAF/00</t>
   </si>
   <si>
     <t>TW3000-XD220-S.14</t>
@@ -111,20 +108,20 @@
     <t>1 (60); 2 (30)</t>
   </si>
   <si>
-    <t>2,4 (25)</t>
-  </si>
-  <si>
     <t>24 VAC/DC</t>
   </si>
   <si>
     <t>TRV-3</t>
+  </si>
+  <si>
+    <t>TSL-3000-60-1-230-IP67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +171,19 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -254,6 +264,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +560,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:V14"/>
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +577,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -626,13 +648,13 @@
     </row>
     <row r="3" spans="1:22" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -645,27 +667,27 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -685,18 +707,18 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
@@ -779,28 +801,28 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6" s="4">
         <v>1600</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V6" s="4">
         <v>10</v>
@@ -837,28 +859,28 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" s="4">
         <v>1600</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V7" s="4">
         <v>10</v>
@@ -893,28 +915,28 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" s="4">
         <v>1000</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V8" s="4">
         <v>20</v>
@@ -949,28 +971,28 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P9" s="4">
         <v>1000</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="S9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V9" s="4">
         <v>20</v>
@@ -1001,28 +1023,28 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P10" s="4">
         <v>2200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V10" s="4">
         <v>10</v>
@@ -1053,81 +1075,81 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" s="4">
         <v>2200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V11" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <v>3</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="15">
+        <v>3000</v>
+      </c>
+      <c r="Q12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="4">
-        <v>4000</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V12" s="4">
-        <v>15</v>
+      <c r="R12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="15">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1135,7 +1157,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1161,28 +1183,28 @@
         <v>1.5</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" s="4">
         <v>3000</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V13" s="4">
         <v>30</v>
@@ -1193,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1219,28 +1241,28 @@
         <v>1.5</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P14" s="4">
         <v>3000</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="S14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V14" s="4">
         <v>30</v>
@@ -1248,6 +1270,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C3:M3"/>
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
@@ -1264,7 +1287,6 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="C3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/properties/htrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/htrv3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\CSharp\TeploSila_RDT\TeploSila_RDT\TeploSila_2\bin\Debug\properties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/RDT/TeplosilaWeb/Content/properties/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{090CCB36-2681-4923-A488-63FF9E12F1A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
   <si>
     <t>Условный диаметр DN, мм</t>
   </si>
@@ -115,13 +116,25 @@
   </si>
   <si>
     <t>TSL-3000-60-1-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-1T-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-1TR-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-1T-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-1TR-230-IP67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +147,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -229,52 +235,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,26 +553,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="13" width="4.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="13" width="4.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
@@ -601,8 +598,8 @@
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="8">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
         <v>53</v>
       </c>
       <c r="C2" s="12">
@@ -618,54 +615,54 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="8">
+      <c r="N2" s="4">
         <v>55</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="4">
         <v>56</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="4">
         <v>57</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="4">
         <v>58</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="4">
         <v>59</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="4">
         <v>60</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="4">
         <v>61</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="4">
         <v>62</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="11" t="s">
         <v>12</v>
       </c>
@@ -690,22 +687,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="11" t="s">
         <v>13</v>
       </c>
@@ -724,40 +721,40 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="1">
         <v>15</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>25</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>32</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>40</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>50</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>65</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>80</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>100</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>125</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>150</v>
       </c>
       <c r="N5" s="11"/>
@@ -770,509 +767,726 @@
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
         <v>14</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="7">
         <v>8</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="7">
         <v>5.8</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="5">
         <v>1600</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" s="4">
+      <c r="S6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C7" s="7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
         <v>14</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="7">
         <v>8</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>5.8</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="5">
         <v>1600</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7" s="4">
+      <c r="S7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:22" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="7">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
         <v>11</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="7">
         <v>9</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="7">
         <v>5</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="5">
         <v>1000</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="4">
+      <c r="S8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:22" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="7">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7">
         <v>11</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="7">
         <v>9</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="7">
         <v>5</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="4">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="5">
         <v>1000</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9" s="4">
+      <c r="S9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
         <v>6</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <v>4.2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="7">
         <v>2.6</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="5">
         <v>2200</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10" s="4">
+      <c r="S10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
         <v>6</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="7">
         <v>4.2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="7">
         <v>2.6</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="5">
         <v>2200</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V11" s="4">
+      <c r="S11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
         <v>2.5</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="7">
         <v>1.5</v>
       </c>
-      <c r="N12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="15">
+      <c r="N12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="5">
         <v>3000</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="V12" s="15">
+      <c r="S12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:22" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="7">
         <v>8</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <v>5.5</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="7">
         <v>3.5</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="7">
         <v>2.5</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="7">
         <v>1.5</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="N13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="5">
         <v>3000</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V13" s="4">
+      <c r="S13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:22" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
         <v>11</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="7">
         <v>8</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="7">
         <v>5.5</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="7">
         <v>3.5</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="7">
         <v>2.5</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="7">
         <v>1.5</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="N14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="5">
         <v>3000</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V14" s="4">
+      <c r="S14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="5">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7">
+        <v>8</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1600</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>16</v>
+      </c>
+      <c r="E16" s="7">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1600</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
+        <v>6</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="5">
+        <v>2200</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
+        <v>6</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="5">
+        <v>2200</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="V3:V5"/>
@@ -1287,6 +1501,9 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/properties/htrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/htrv3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/RDT/TeplosilaWeb/Content/properties/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\27.04.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{090CCB36-2681-4923-A488-63FF9E12F1A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="33">
   <si>
     <t>Условный диаметр DN, мм</t>
   </si>
@@ -40,18 +39,6 @@
   </si>
   <si>
     <t>TSL-2200-40-1R-230-IP67</t>
-  </si>
-  <si>
-    <t>TW1001-XD220-S.14</t>
-  </si>
-  <si>
-    <t>TW1001-XD24-S.14</t>
-  </si>
-  <si>
-    <t>TW3000-XD220-S.14</t>
-  </si>
-  <si>
-    <t>TW3000-XD24-S.14</t>
   </si>
   <si>
     <t>№ строки</t>
@@ -106,9 +93,6 @@
 6 (10); 8 (7,5)</t>
   </si>
   <si>
-    <t>1 (60); 2 (30)</t>
-  </si>
-  <si>
     <t>24 VAC/DC</t>
   </si>
   <si>
@@ -128,12 +112,24 @@
   </si>
   <si>
     <t>TSL-2200-40-1TR-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-1A-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-1A-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-3000-60-1A-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-6000-60-1-230-IP67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,15 +187,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -231,11 +233,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,6 +301,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,9 +339,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,177 +619,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="13" width="4.5546875" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="14" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
         <v>53</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="22">
         <v>54</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="4">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="4">
         <v>55</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>56</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>57</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <v>58</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <v>59</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2" s="4">
         <v>60</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <v>61</v>
       </c>
-      <c r="U2" s="4">
+      <c r="V2" s="4">
         <v>62</v>
       </c>
-      <c r="V2" s="4">
+      <c r="W2" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:23" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="P4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11" t="s">
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-    </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1">
         <v>15</v>
       </c>
@@ -757,17 +827,20 @@
       <c r="M5" s="1">
         <v>150</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="N5" s="1">
+        <v>200</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+    </row>
+    <row r="6" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -797,35 +870,36 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="5">
+        <v>19</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="5">
         <v>1600</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>13</v>
+      <c r="R6" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" s="5">
+        <v>20</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -855,152 +929,153 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="5">
+        <v>19</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="5">
         <v>1600</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>13</v>
+      <c r="R7" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7" s="5">
+        <v>20</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11">
         <v>16</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="11">
         <v>16</v>
       </c>
-      <c r="E8" s="7">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7">
-        <v>9</v>
-      </c>
-      <c r="G8" s="7">
-        <v>5</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="11">
+        <v>16</v>
+      </c>
+      <c r="F8" s="11">
+        <v>14</v>
+      </c>
+      <c r="G8" s="11">
+        <v>8</v>
+      </c>
+      <c r="H8" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>1600</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7">
-        <v>9</v>
-      </c>
-      <c r="G9" s="7">
-        <v>5</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2.6</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>2200</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1019,92 +1094,94 @@
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="5">
+        <v>19</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5">
         <v>2200</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>13</v>
+      <c r="R10" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10" s="5">
+        <v>20</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7">
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11">
         <v>6</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="11">
         <v>4.2</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="11">
         <v>2.6</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="12">
         <v>2200</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V11" s="5">
+      <c r="R11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1121,156 +1198,141 @@
       <c r="M12" s="7">
         <v>1.5</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="5">
+        <v>19</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="5">
         <v>3000</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>13</v>
+      <c r="R12" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V12" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8</v>
-      </c>
-      <c r="J13" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="K13" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="B13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
         <v>2.5</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="11">
         <v>1.5</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="N13" s="11"/>
+      <c r="O13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="12">
         <v>3000</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V13" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="R13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8</v>
-      </c>
-      <c r="J14" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="K14" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="L14" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="5">
-        <v>3000</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V14" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11">
+        <v>2</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>6000</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7">
         <v>16</v>
@@ -1295,40 +1357,41 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="5">
+        <v>19</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="5">
         <v>1600</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>24</v>
+      <c r="R15" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V15" s="5">
+        <v>20</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>16</v>
@@ -1353,40 +1416,41 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" s="5">
+        <v>19</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="5">
         <v>1600</v>
       </c>
-      <c r="Q16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>24</v>
+      <c r="R16" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V16" s="5">
+        <v>20</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1405,40 +1469,41 @@
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N17" s="7"/>
       <c r="O17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="5">
+        <v>19</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="5">
         <v>2200</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>24</v>
+      <c r="R17" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V17" s="5">
+        <v>20</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1457,53 +1522,54 @@
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="5">
+        <v>19</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="5">
         <v>2200</v>
       </c>
-      <c r="Q18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>24</v>
+      <c r="R18" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V18" s="5">
+        <v>20</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="5">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U3:U5"/>
     <mergeCell ref="V3:V5"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="R3:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/properties/htrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/htrv3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\27.04.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DC4D45A-E922-4AFC-B6F1-85EA91E3933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
   <si>
     <t>Условный диаметр DN, мм</t>
   </si>
@@ -124,12 +125,22 @@
   </si>
   <si>
     <t>TSL-6000-60-1-230-IP67</t>
+  </si>
+  <si>
+    <t>4 (15); 6 (10);
+8 (7,5); 10 (6)</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-1-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-1-24-IP67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,25 +290,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -313,11 +311,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,15 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,8 +628,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:W1"/>
@@ -638,162 +647,162 @@
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+    </row>
+    <row r="2" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10">
         <v>53</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="18">
         <v>54</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="4">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10">
         <v>55</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="10">
         <v>56</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="10">
         <v>57</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="10">
         <v>58</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="10">
         <v>59</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="10">
         <v>60</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="10">
         <v>61</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="10">
         <v>62</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:23" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="21" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="21" t="s">
+      <c r="T3" s="17"/>
+      <c r="U3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:23" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="21" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21" t="s">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-    </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+    </row>
+    <row r="5" spans="1:23" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1">
         <v>15</v>
       </c>
@@ -830,732 +839,841 @@
       <c r="N5" s="1">
         <v>200</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-    </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+    </row>
+    <row r="6" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="C6" s="3">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
         <v>14</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>8</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>5.8</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="5">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="13">
         <v>1600</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="5">
+      <c r="T6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="C7" s="3">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
         <v>14</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>8</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>5.8</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="13">
         <v>1600</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="5">
+      <c r="T7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11">
-        <v>16</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="C8" s="3">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
         <v>14</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="3">
         <v>8</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="3">
         <v>5.8</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="12">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="13">
         <v>1600</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="12">
+      <c r="T8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>6</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>4.2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="3">
         <v>2.6</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="13">
         <v>2200</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="5">
+      <c r="T9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
         <v>6</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>4.2</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="3">
         <v>2.6</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="13">
         <v>2200</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W10" s="5">
+      <c r="T10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="3">
         <v>4.2</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="3">
         <v>2.6</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="12">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="13">
         <v>2200</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="12">
+      <c r="T11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
         <v>2.5</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="3">
         <v>1.5</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="5">
+      <c r="N12" s="3"/>
+      <c r="O12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="13">
         <v>3000</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="5">
+      <c r="T12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
         <v>2.5</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="3">
         <v>1.5</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="12">
+      <c r="N13" s="3"/>
+      <c r="O13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="13">
         <v>3000</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="S13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="12">
+      <c r="T13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>9</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
         <v>2</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="12">
+      <c r="O14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="13">
         <v>6000</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>1600</v>
+      </c>
+      <c r="R15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="12">
+      <c r="S15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>1600</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>2200</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>2200</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1600</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7">
-        <v>16</v>
-      </c>
-      <c r="E15" s="7">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7">
-        <v>14</v>
-      </c>
-      <c r="G15" s="7">
-        <v>8</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>1600</v>
-      </c>
-      <c r="R15" s="8" t="s">
+      <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6">
+        <v>6</v>
+      </c>
+      <c r="J20" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="K20" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>2200</v>
+      </c>
+      <c r="R20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W15" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7">
-        <v>16</v>
-      </c>
-      <c r="E16" s="7">
-        <v>16</v>
-      </c>
-      <c r="F16" s="7">
-        <v>14</v>
-      </c>
-      <c r="G16" s="7">
-        <v>8</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>1600</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W16" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7">
-        <v>6</v>
-      </c>
-      <c r="J17" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="K17" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>2200</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7">
-        <v>6</v>
-      </c>
-      <c r="J18" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="K18" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>2200</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" s="5">
+      <c r="S20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="7">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:N3"/>
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="W3:W5"/>
@@ -1570,6 +1688,9 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="R3:R5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/properties/htrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/htrv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DC4D45A-E922-4AFC-B6F1-85EA91E3933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E61AE2F-EB83-451A-9753-310EE56E3932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
   <si>
     <t>Условный диаметр DN, мм</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>TSL-2200-40-1-24-IP67</t>
+  </si>
+  <si>
+    <t>24 VDC</t>
   </si>
 </sst>
 </file>
@@ -328,6 +331,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,15 +350,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,49 +651,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10">
         <v>53</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="21">
         <v>54</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="11"/>
       <c r="O2" s="10">
         <v>55</v>
@@ -721,88 +724,88 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17" t="s">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="17" t="s">
+      <c r="T3" s="20"/>
+      <c r="U3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="17" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17" t="s">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1">
         <v>15</v>
       </c>
@@ -839,15 +842,15 @@
       <c r="N5" s="1">
         <v>200</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -1011,7 +1014,7 @@
         <v>21</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="T8" s="13" t="s">
         <v>19</v>
@@ -1170,7 +1173,7 @@
         <v>21</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="T11" s="13" t="s">
         <v>19</v>
@@ -1272,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="T13" s="13" t="s">
         <v>19</v>
@@ -1674,6 +1677,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C3:N3"/>
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="W3:W5"/>
@@ -1690,7 +1694,6 @@
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/properties/htrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/htrv3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\properties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\04.08.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E61AE2F-EB83-451A-9753-310EE56E3932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="41">
   <si>
     <t>Условный диаметр DN, мм</t>
   </si>
@@ -70,12 +69,6 @@
   </si>
   <si>
     <t>3-х поз.</t>
-  </si>
-  <si>
-    <t>4-20 mA (2-10 V)</t>
-  </si>
-  <si>
-    <t>Наличие датчика положения 4-20 mA</t>
   </si>
   <si>
     <t>Наличие возвратного механизма</t>
@@ -115,15 +108,6 @@
     <t>TSL-2200-40-1TR-230-IP67</t>
   </si>
   <si>
-    <t>TSL-1600-25-1A-24-IP67</t>
-  </si>
-  <si>
-    <t>TSL-2200-40-1A-24-IP67</t>
-  </si>
-  <si>
-    <t>TSL-3000-60-1A-24-IP67</t>
-  </si>
-  <si>
     <t>TSL-6000-60-1-230-IP67</t>
   </si>
   <si>
@@ -137,26 +121,48 @@
     <t>TSL-2200-40-1-24-IP67</t>
   </si>
   <si>
-    <t>24 VDC</t>
+    <t>Наличие датчика
+положения
+0(4)-20 mA,
+0(2)-10 V</t>
+  </si>
+  <si>
+    <t>0(4)-20 mA,
+0(2)-10 V</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-2A-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-2A-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-2A-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-2A-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-3000-60-2A-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-3000-60-2A-230-IP67</t>
+  </si>
+  <si>
+    <t>TW5000-XD220-S.14</t>
+  </si>
+  <si>
+    <t>1 (60); 2 (30)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -189,13 +195,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -288,49 +301,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -340,16 +339,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,11 +639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,167 +653,169 @@
     <col min="3" max="14" width="4.5703125" customWidth="1"/>
     <col min="18" max="18" width="13.5703125" customWidth="1"/>
     <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
     <col min="21" max="21" width="10.5703125" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-    </row>
-    <row r="2" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8">
         <v>53</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="17">
         <v>54</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="8">
         <v>55</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="8">
         <v>56</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="8">
         <v>57</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="8">
         <v>58</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="8">
         <v>59</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="8">
         <v>60</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="8">
         <v>61</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="8">
         <v>62</v>
       </c>
-      <c r="W2" s="10">
+      <c r="W2" s="8">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="20" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="16" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="20" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20" t="s">
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-    </row>
-    <row r="5" spans="1:23" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="T4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1">
         <v>15</v>
       </c>
@@ -842,18 +852,18 @@
       <c r="N5" s="1">
         <v>200</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-    </row>
-    <row r="6" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -883,36 +893,36 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>1600</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="13">
+      <c r="T6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+    <row r="7" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -942,40 +952,40 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>1600</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="13">
+      <c r="T7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+    <row r="8" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
+      <c r="B8" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="3">
         <v>16</v>
@@ -1001,36 +1011,36 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>1600</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="T8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1054,36 +1064,36 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>2200</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="13">
+      <c r="T9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+    <row r="10" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1107,40 +1117,40 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>2200</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="W10" s="13">
+      <c r="T10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+    <row r="11" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
+      <c r="B11" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1160,40 +1170,40 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>2200</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="13">
+      <c r="T11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+    <row r="12" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1211,40 +1221,40 @@
         <v>1.5</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>3000</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="13">
+      <c r="T12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+    <row r="13" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
+      <c r="B13" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1262,40 +1272,40 @@
         <v>1.5</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>3000</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="13">
+      <c r="T13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+    <row r="14" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1311,40 +1321,40 @@
       <c r="N14" s="3">
         <v>2</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="13">
+      <c r="O14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="3">
         <v>6000</v>
       </c>
-      <c r="R14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="13" t="s">
+      <c r="R14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="13">
+      <c r="T14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>16</v>
@@ -1370,40 +1380,40 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>1600</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W15" s="13">
+      <c r="S15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+    <row r="16" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>16</v>
@@ -1429,40 +1439,40 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>1600</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="W16" s="13">
+      <c r="S16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+    <row r="17" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1482,40 +1492,40 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>2200</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="13">
+      <c r="S17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+    <row r="18" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1535,148 +1545,361 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="S18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="T19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>6</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="R18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="13" t="s">
+      <c r="R20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="13" t="s">
+      <c r="T20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>16</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="11">
+        <v>16</v>
+      </c>
+      <c r="D21" s="11">
+        <v>16</v>
+      </c>
+      <c r="E21" s="11">
+        <v>16</v>
+      </c>
+      <c r="F21" s="11">
+        <v>14</v>
+      </c>
+      <c r="G21" s="11">
+        <v>8</v>
+      </c>
+      <c r="H21" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>1600</v>
+      </c>
+      <c r="R21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="W18" s="13">
+      <c r="S21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>17</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11">
+        <v>6</v>
+      </c>
+      <c r="J22" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="K22" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>2200</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6">
-        <v>16</v>
-      </c>
-      <c r="E19" s="6">
-        <v>16</v>
-      </c>
-      <c r="F19" s="6">
-        <v>14</v>
-      </c>
-      <c r="G19" s="6">
-        <v>8</v>
-      </c>
-      <c r="H19" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="7" t="s">
+    <row r="23" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>18</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M23" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="20">
+        <v>3000</v>
+      </c>
+      <c r="R23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="7">
-        <v>1600</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6">
-        <v>6</v>
-      </c>
-      <c r="J20" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="K20" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="S23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
         <v>19</v>
       </c>
-      <c r="Q20" s="7">
-        <v>2200</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" s="7">
-        <v>10</v>
+      <c r="B24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>5000</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" s="20">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A1:W1"/>
@@ -1693,7 +1916,6 @@
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
